--- a/planning/schedule.xlsx
+++ b/planning/schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Santi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snrodrig\Documents\GitHub\MitoSplit-Net\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Monday</t>
   </si>
@@ -65,9 +65,6 @@
     <t>DA</t>
   </si>
   <si>
-    <t>Training the network and performance analysis: with DA</t>
-  </si>
-  <si>
     <t>Data Augmentation</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>Preprocessing</t>
   </si>
   <si>
-    <t>Training the network and performance analysis: with PROC</t>
-  </si>
-  <si>
-    <t>Training the network and performance analysis: without PROC</t>
-  </si>
-  <si>
     <t>07.05 - 07.09</t>
   </si>
   <si>
@@ -99,12 +90,6 @@
   </si>
   <si>
     <t>SRP presentation</t>
-  </si>
-  <si>
-    <t>DA and create .py</t>
-  </si>
-  <si>
-    <t>Training the network and performance analysis: with temporal PROC</t>
   </si>
   <si>
     <t>ATS / Try with bacteria datasets?</t>
@@ -189,6 +174,33 @@
       <t>evaluation.py</t>
     </r>
   </si>
+  <si>
+    <t>T&amp;T: without PROC</t>
+  </si>
+  <si>
+    <t>T&amp;T</t>
+  </si>
+  <si>
+    <t>Train and Test</t>
+  </si>
+  <si>
+    <t>T&amp;T: with PROC</t>
+  </si>
+  <si>
+    <t>T&amp;T: with DA</t>
+  </si>
+  <si>
+    <t>T&amp;T: with temporal PROC</t>
+  </si>
+  <si>
+    <t>Redo T&amp;T: with new PROC (compare different sigmas)</t>
+  </si>
+  <si>
+    <t>Modify PROC by removing small objects and changing minimum spot size (sigma)</t>
+  </si>
+  <si>
+    <t>DA (add functions to preprocessing.py)</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -256,6 +268,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -544,19 +562,19 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="49.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="49.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125"/>
+    <col min="1" max="6" width="24.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="24.85546875" style="1"/>
+    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -575,131 +593,141 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -710,16 +738,17 @@
       <c r="F9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+  <mergeCells count="10">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/planning/schedule.xlsx
+++ b/planning/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Monday</t>
   </si>
@@ -114,7 +114,25 @@
     </r>
   </si>
   <si>
-    <t>Adjust parameters, repeat training and performance analysis</t>
+    <t>T&amp;T: without PROC</t>
+  </si>
+  <si>
+    <t>T&amp;T</t>
+  </si>
+  <si>
+    <t>Train and Test</t>
+  </si>
+  <si>
+    <t>T&amp;T: with PROC</t>
+  </si>
+  <si>
+    <t>T&amp;T: with DA</t>
+  </si>
+  <si>
+    <t>T&amp;T: with temporal PROC</t>
+  </si>
+  <si>
+    <t>DA (add functions to preprocessing.py)</t>
   </si>
   <si>
     <r>
@@ -150,56 +168,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">training.py </t>
+      <t>training.py</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>evaluation.py</t>
-    </r>
-  </si>
-  <si>
-    <t>T&amp;T: without PROC</t>
-  </si>
-  <si>
-    <t>T&amp;T</t>
-  </si>
-  <si>
-    <t>Train and Test</t>
-  </si>
-  <si>
-    <t>T&amp;T: with PROC</t>
-  </si>
-  <si>
-    <t>T&amp;T: with DA</t>
-  </si>
-  <si>
-    <t>T&amp;T: with temporal PROC</t>
-  </si>
-  <si>
-    <t>Redo T&amp;T: with new PROC (compare different sigmas)</t>
-  </si>
-  <si>
-    <t>Modify PROC by removing small objects and changing minimum spot size (sigma)</t>
-  </si>
-  <si>
-    <t>DA (add functions to preprocessing.py)</t>
+  </si>
+  <si>
+    <t>Add constrast enhancement to Mito channel (MitoProc)</t>
+  </si>
+  <si>
+    <t>Modify PROC by removing small objects and changing minimum spot size (sigma) (WatProc)</t>
+  </si>
+  <si>
+    <t>T&amp;T: batch size, Mito vs MitoProc</t>
+  </si>
+  <si>
+    <t>T&amp;T: minimum spot size</t>
   </si>
 </sst>
 </file>
@@ -256,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -273,10 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,7 +547,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="49.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -623,14 +608,14 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
@@ -643,16 +628,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -665,63 +650,65 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -731,24 +718,29 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/planning/schedule.xlsx
+++ b/planning/schedule.xlsx
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>T&amp;T: with temporal PROC</t>
-  </si>
-  <si>
-    <t>DA (add functions to preprocessing.py)</t>
   </si>
   <si>
     <r>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>T&amp;T: minimum spot size</t>
+  </si>
+  <si>
+    <t>DA (add function to training.py)</t>
   </si>
 </sst>
 </file>
@@ -258,10 +258,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="49.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -588,11 +588,11 @@
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -608,14 +608,14 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
@@ -627,16 +627,16 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -650,15 +650,15 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="s">
         <v>26</v>
@@ -671,14 +671,14 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
@@ -688,15 +688,15 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -706,34 +706,28 @@
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -741,6 +735,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/planning/schedule.xlsx
+++ b/planning/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Monday</t>
   </si>
@@ -92,28 +92,6 @@
     <t>SRP presentation</t>
   </si>
   <si>
-    <t>ATS / Try with bacteria datasets?</t>
-  </si>
-  <si>
-    <t>Determine optimal architecture and prepare report</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Write </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tests.py</t>
-    </r>
-  </si>
-  <si>
     <t>T&amp;T: without PROC</t>
   </si>
   <si>
@@ -127,9 +105,6 @@
   </si>
   <si>
     <t>T&amp;T: with DA</t>
-  </si>
-  <si>
-    <t>T&amp;T: with temporal PROC</t>
   </si>
   <si>
     <r>
@@ -183,12 +158,56 @@
   <si>
     <t>DA (add function to training.py)</t>
   </si>
+  <si>
+    <t>Improve evaluation pipeline and code debugging</t>
+  </si>
+  <si>
+    <t>T&amp;T: with tPROC</t>
+  </si>
+  <si>
+    <t>tPROC</t>
+  </si>
+  <si>
+    <t>Temporal Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare final presentation </t>
+  </si>
+  <si>
+    <t>Define optimal network parameters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATS / Try with bacteria datasets / Write </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +225,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -258,10 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="49.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -588,11 +615,11 @@
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -608,14 +635,14 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8"/>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
@@ -627,76 +654,80 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -704,43 +735,46 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
